--- a/7/2/2/1/Economía nacional 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/Economía nacional 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Serie</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP75"/>
+  <dimension ref="A1:AP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10202,46 +10205,46 @@
         <v>115</v>
       </c>
       <c r="B75">
-        <v>1573283</v>
+        <v>1577946</v>
       </c>
       <c r="C75">
         <v>496</v>
       </c>
       <c r="D75">
-        <v>199922</v>
+        <v>199347</v>
       </c>
       <c r="E75">
-        <v>118211</v>
+        <v>118035</v>
       </c>
       <c r="F75">
-        <v>81711</v>
+        <v>81312</v>
       </c>
       <c r="G75">
-        <v>222052</v>
+        <v>222158</v>
       </c>
       <c r="H75">
         <v>28350</v>
       </c>
       <c r="I75">
-        <v>193702</v>
+        <v>193808</v>
       </c>
       <c r="J75">
-        <v>792</v>
+        <v>686</v>
       </c>
       <c r="K75">
-        <v>244490</v>
+        <v>244318</v>
       </c>
       <c r="L75">
         <v>38244</v>
       </c>
       <c r="M75">
-        <v>206246</v>
+        <v>206074</v>
       </c>
       <c r="N75">
-        <v>541961</v>
+        <v>546380</v>
       </c>
       <c r="O75">
-        <v>402123</v>
+        <v>406543</v>
       </c>
       <c r="P75">
         <v>27571</v>
@@ -10262,13 +10265,13 @@
         <v>1532</v>
       </c>
       <c r="V75">
-        <v>160084</v>
+        <v>161076</v>
       </c>
       <c r="W75">
-        <v>-21223</v>
+        <v>-19579</v>
       </c>
       <c r="X75">
-        <v>1594506</v>
+        <v>1597525</v>
       </c>
       <c r="Y75">
         <v>181548</v>
@@ -10280,28 +10283,28 @@
         <v>72516</v>
       </c>
       <c r="AB75">
-        <v>236175</v>
+        <v>235642</v>
       </c>
       <c r="AC75">
         <v>25273</v>
       </c>
       <c r="AD75">
-        <v>210902</v>
+        <v>210369</v>
       </c>
       <c r="AE75">
-        <v>307177</v>
+        <v>306084</v>
       </c>
       <c r="AF75">
-        <v>41777</v>
+        <v>41721</v>
       </c>
       <c r="AG75">
-        <v>265400</v>
+        <v>264364</v>
       </c>
       <c r="AH75">
-        <v>509852</v>
+        <v>513642</v>
       </c>
       <c r="AI75">
-        <v>432560</v>
+        <v>436350</v>
       </c>
       <c r="AJ75">
         <v>26518</v>
@@ -10322,7 +10325,135 @@
         <v>1532</v>
       </c>
       <c r="AP75">
-        <v>156269</v>
+        <v>157124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:42">
+      <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76">
+        <v>1588167</v>
+      </c>
+      <c r="C76">
+        <v>439</v>
+      </c>
+      <c r="D76">
+        <v>214604</v>
+      </c>
+      <c r="E76">
+        <v>130414</v>
+      </c>
+      <c r="F76">
+        <v>84190</v>
+      </c>
+      <c r="G76">
+        <v>222189</v>
+      </c>
+      <c r="H76">
+        <v>35712</v>
+      </c>
+      <c r="I76">
+        <v>186477</v>
+      </c>
+      <c r="J76">
+        <v>552</v>
+      </c>
+      <c r="K76">
+        <v>254803</v>
+      </c>
+      <c r="L76">
+        <v>45361</v>
+      </c>
+      <c r="M76">
+        <v>209441</v>
+      </c>
+      <c r="N76">
+        <v>538975</v>
+      </c>
+      <c r="O76">
+        <v>400968</v>
+      </c>
+      <c r="P76">
+        <v>26896</v>
+      </c>
+      <c r="Q76">
+        <v>111111</v>
+      </c>
+      <c r="R76">
+        <v>147978</v>
+      </c>
+      <c r="S76">
+        <v>43693</v>
+      </c>
+      <c r="T76">
+        <v>42184</v>
+      </c>
+      <c r="U76">
+        <v>1509</v>
+      </c>
+      <c r="V76">
+        <v>164933</v>
+      </c>
+      <c r="W76">
+        <v>-12280</v>
+      </c>
+      <c r="X76">
+        <v>1600447</v>
+      </c>
+      <c r="Y76">
+        <v>192716</v>
+      </c>
+      <c r="Z76">
+        <v>119399</v>
+      </c>
+      <c r="AA76">
+        <v>73318</v>
+      </c>
+      <c r="AB76">
+        <v>239044</v>
+      </c>
+      <c r="AC76">
+        <v>35307</v>
+      </c>
+      <c r="AD76">
+        <v>203737</v>
+      </c>
+      <c r="AE76">
+        <v>315252</v>
+      </c>
+      <c r="AF76">
+        <v>49160</v>
+      </c>
+      <c r="AG76">
+        <v>266092</v>
+      </c>
+      <c r="AH76">
+        <v>501538</v>
+      </c>
+      <c r="AI76">
+        <v>425630</v>
+      </c>
+      <c r="AJ76">
+        <v>26038</v>
+      </c>
+      <c r="AK76">
+        <v>49871</v>
+      </c>
+      <c r="AL76">
+        <v>147978</v>
+      </c>
+      <c r="AM76">
+        <v>43693</v>
+      </c>
+      <c r="AN76">
+        <v>42184</v>
+      </c>
+      <c r="AO76">
+        <v>1509</v>
+      </c>
+      <c r="AP76">
+        <v>160224</v>
       </c>
     </row>
   </sheetData>

--- a/7/2/2/1/Economía nacional 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/Economía nacional 2002 a 2021 - Trimestral.xlsx
@@ -73,7 +73,7 @@
     <t>Reservas técnicas de seguros activos</t>
   </si>
   <si>
-    <t>Reservas técnicas de seguros de vida activos</t>
+    <t>Derechos sobre las reservas de seguros de vida, activos</t>
   </si>
   <si>
     <t>Reservas para primas y para siniestros activos</t>
